--- a/products.xlsx
+++ b/products.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>SKU</t>
   </si>
@@ -66,6 +66,12 @@
   <si>
     <t>拉美</t>
   </si>
+  <si>
+    <t>YJDF0013LG</t>
+  </si>
+  <si>
+    <t>YJDF0014LG</t>
+  </si>
 </sst>
 </file>
 
@@ -237,12 +243,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -578,7 +590,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -602,16 +614,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -620,91 +632,100 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -712,8 +733,11 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1038,114 +1062,720 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="5" width="30.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="30.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="5">
         <v>0.1</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6">
         <v>35</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>3.0654</v>
       </c>
     </row>
-    <row r="3" ht="27" spans="1:5">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="5">
         <v>5.65</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6">
         <v>270</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>61.6612</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="5">
         <v>0.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="5">
         <v>48</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="5">
         <v>12.4519291338583</v>
       </c>
     </row>
-    <row r="5" ht="27" spans="1:5">
-      <c r="A5" s="1" t="s">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="5">
         <v>0.672</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="5">
         <v>34</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="5">
         <v>12.85</v>
       </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6">
+        <v>17.47</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="D7" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E7" s="6">
+        <v>19.36</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" customHeight="1" spans="1:5">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" customHeight="1" spans="1:5">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" customHeight="1" spans="1:5">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+    </row>
+    <row r="39" customHeight="1" spans="1:5">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" customHeight="1" spans="1:5">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" customHeight="1" spans="1:5">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" customHeight="1" spans="1:5">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" customHeight="1" spans="1:5">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" customHeight="1" spans="1:5">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:5">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" customHeight="1" spans="1:5">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:5">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" customHeight="1" spans="1:5">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:5">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" customHeight="1" spans="1:5">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:5">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" customHeight="1" spans="1:5">
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:5">
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" customHeight="1" spans="1:5">
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:5">
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+    </row>
+    <row r="56" customHeight="1" spans="1:5">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" customHeight="1" spans="1:5">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" customHeight="1" spans="1:5">
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" customHeight="1" spans="1:5">
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C14">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C30">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42">
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C54">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C58">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>SKU</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>YJDF0014LG</t>
+  </si>
+  <si>
+    <t>效果器单块</t>
+  </si>
+  <si>
+    <t>调音器</t>
+  </si>
+  <si>
+    <t>NRXD68865</t>
+  </si>
+  <si>
+    <t>水槽</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1077,7 @@
   <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
@@ -1194,32 +1206,72 @@
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="D8" s="5">
+        <v>38</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="A9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>22.03</v>
+      </c>
+      <c r="E10" s="6">
+        <v>9.14</v>
+      </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14</v>
+      </c>
+      <c r="D11" s="6">
+        <v>305</v>
+      </c>
+      <c r="E11" s="6">
+        <v>138</v>
+      </c>
     </row>
     <row r="12" customHeight="1" spans="1:5">
       <c r="A12" s="4"/>

--- a/products.xlsx
+++ b/products.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
   <si>
     <t>SKU</t>
   </si>
@@ -67,22 +67,64 @@
     <t>拉美</t>
   </si>
   <si>
+    <t>TKXBQ01</t>
+  </si>
+  <si>
+    <t>QPVX68588</t>
+  </si>
+  <si>
+    <t>FPGL89987</t>
+  </si>
+  <si>
+    <t>墨链</t>
+  </si>
+  <si>
+    <t>GQEZ90311</t>
+  </si>
+  <si>
+    <t>WHQ-LAN-03-LG</t>
+  </si>
+  <si>
+    <t>YJDF0002LG</t>
+  </si>
+  <si>
+    <t>YJDF0003LG</t>
+  </si>
+  <si>
+    <t>YJDF0004LG</t>
+  </si>
+  <si>
+    <t>YJDF0005LG</t>
+  </si>
+  <si>
+    <t>YJDF0006LG</t>
+  </si>
+  <si>
+    <t>YJDF0007LG、TKZPG01</t>
+  </si>
+  <si>
+    <t>YJDF0008LG</t>
+  </si>
+  <si>
+    <t>YJDF0009LG</t>
+  </si>
+  <si>
+    <t>YJDF0010LG</t>
+  </si>
+  <si>
+    <t>YJDF0011LG</t>
+  </si>
+  <si>
     <t>YJDF0013LG</t>
   </si>
   <si>
     <t>YJDF0014LG</t>
   </si>
   <si>
-    <t>效果器单块</t>
-  </si>
-  <si>
-    <t>调音器</t>
-  </si>
-  <si>
-    <t>NRXD68865</t>
-  </si>
-  <si>
-    <t>水槽</t>
+    <t>YJDF0015LG</t>
+  </si>
+  <si>
+    <t>YJDF0016LG</t>
   </si>
 </sst>
 </file>
@@ -96,7 +138,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +149,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -455,7 +503,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -475,6 +523,21 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,137 +659,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -747,6 +810,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1074,10 +1140,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.625" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
@@ -1113,11 +1179,11 @@
       <c r="C2" s="5">
         <v>0.1</v>
       </c>
-      <c r="D2" s="6">
-        <v>35</v>
-      </c>
-      <c r="E2" s="6">
-        <v>3.0654</v>
+      <c r="D2" s="5">
+        <v>28</v>
+      </c>
+      <c r="E2" s="5">
+        <v>4.11</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -1151,7 +1217,7 @@
         <v>48</v>
       </c>
       <c r="E4" s="5">
-        <v>12.4519291338583</v>
+        <v>12.28</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
@@ -1179,13 +1245,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="6">
-        <v>22</v>
-      </c>
-      <c r="E6" s="6">
-        <v>17.47</v>
+        <v>0.26</v>
+      </c>
+      <c r="D6" s="5">
+        <v>31</v>
+      </c>
+      <c r="E6" s="5">
+        <v>2.86</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
@@ -1193,16 +1259,16 @@
         <v>13</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>0.87</v>
-      </c>
-      <c r="D7" s="6">
-        <v>18.5</v>
-      </c>
-      <c r="E7" s="6">
-        <v>19.36</v>
+        <v>1</v>
+      </c>
+      <c r="D7" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="E7" s="5">
+        <v>9.65</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
@@ -1210,624 +1276,759 @@
         <v>14</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="D8" s="5">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1</v>
+        <v>0.2218</v>
+      </c>
+      <c r="D8" s="6">
+        <v>35</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4.5574</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="C9" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D9" s="5">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1</v>
+        <v>0.2218</v>
+      </c>
+      <c r="D9" s="6">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7">
+        <v>4.4914</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>22.03</v>
-      </c>
-      <c r="E10" s="6">
-        <v>9.14</v>
+        <v>1.5</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5">
+        <v>14.6706</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.1844</v>
+      </c>
+      <c r="D11" s="5">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.26</v>
+      </c>
+      <c r="D12" s="5">
+        <v>31</v>
+      </c>
+      <c r="E12" s="5">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1.95</v>
+      </c>
+      <c r="D13" s="5">
+        <v>113</v>
+      </c>
+      <c r="E13" s="5">
+        <v>14.1479888268156</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5">
+        <v>2.7</v>
+      </c>
+      <c r="D14" s="5">
+        <v>118</v>
+      </c>
+      <c r="E14" s="5">
+        <v>39.85</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0.98</v>
+      </c>
+      <c r="D15" s="6">
+        <v>88</v>
+      </c>
+      <c r="E15" s="6">
+        <v>15.1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>27.5</v>
+      </c>
+      <c r="E16" s="6">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.55</v>
+      </c>
+      <c r="D17" s="5">
+        <v>67</v>
+      </c>
+      <c r="E17" s="5">
+        <v>15.54</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>15.24</v>
+      </c>
+      <c r="E18" s="5">
+        <v>9.65</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="5">
+        <v>67.593</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15.47</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="5">
+        <v>64.73</v>
+      </c>
+      <c r="E20" s="5">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5">
-        <v>14</v>
-      </c>
-      <c r="D11" s="6">
-        <v>305</v>
-      </c>
-      <c r="E11" s="6">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" customHeight="1" spans="1:5">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="C21" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="D21" s="6">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6">
+        <v>17.47</v>
+      </c>
     </row>
     <row r="22" customHeight="1" spans="1:5">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0.87</v>
+      </c>
+      <c r="D22" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>19.36</v>
+      </c>
     </row>
     <row r="23" customHeight="1" spans="1:5">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="5">
+        <v>0.185</v>
+      </c>
+      <c r="D23" s="5">
+        <v>35.2</v>
+      </c>
+      <c r="E23" s="5">
+        <v>1.635</v>
+      </c>
     </row>
     <row r="24" customHeight="1" spans="1:5">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
+      <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="5">
+        <v>5.1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>230</v>
+      </c>
+      <c r="E24" s="6">
+        <v>35.69</v>
+      </c>
     </row>
     <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:5">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" customHeight="1" spans="1:5">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" customHeight="1" spans="1:5">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:5">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:5">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
     </row>
     <row r="31" customHeight="1" spans="1:5">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" customHeight="1" spans="1:5">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" customHeight="1" spans="1:5">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" customHeight="1" spans="1:5">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
     </row>
     <row r="35" customHeight="1" spans="1:5">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" customHeight="1" spans="1:5">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" customHeight="1" spans="1:5">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" customHeight="1" spans="1:5">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
     </row>
     <row r="39" customHeight="1" spans="1:5">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" customHeight="1" spans="1:5">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" customHeight="1" spans="1:5">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" customHeight="1" spans="1:5">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
     </row>
     <row r="43" customHeight="1" spans="1:5">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
     </row>
     <row r="44" customHeight="1" spans="1:5">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" customHeight="1" spans="1:5">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" customHeight="1" spans="1:5">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
     </row>
     <row r="47" customHeight="1" spans="1:5">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" customHeight="1" spans="1:5">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" customHeight="1" spans="1:5">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" customHeight="1" spans="1:5">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
     </row>
     <row r="51" customHeight="1" spans="1:5">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" customHeight="1" spans="1:5">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" customHeight="1" spans="1:5">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" customHeight="1" spans="1:5">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
     </row>
     <row r="55" customHeight="1" spans="1:5">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" customHeight="1" spans="1:5">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" customHeight="1" spans="1:5">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" customHeight="1" spans="1:5">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
     </row>
     <row r="59" customHeight="1" spans="1:5">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" customHeight="1" spans="1:5">
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+    </row>
+    <row r="61" customHeight="1" spans="1:5">
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3">
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
     <cfRule type="duplicateValues" dxfId="0" priority="75"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A3">
+  <conditionalFormatting sqref="A5">
     <cfRule type="duplicateValues" dxfId="0" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A6">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8">
     <cfRule type="duplicateValues" dxfId="0" priority="68"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C6">
+  <conditionalFormatting sqref="C8">
     <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A7">
+  <conditionalFormatting sqref="A9">
     <cfRule type="duplicateValues" dxfId="0" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8">
+  <conditionalFormatting sqref="C9">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C15">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="duplicateValues" dxfId="0" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A27">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A28">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31">
+    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41">
+    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A42">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A43">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A44">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C44">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A45">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A46">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A47">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A48">
+    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A49">
+    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A50">
+    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A51">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A53">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A54">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A55">
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56">
+    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C56">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57">
+    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A58">
+    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A59">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A60">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C60">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A61">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:A13">
     <cfRule type="duplicateValues" dxfId="0" priority="40"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A9">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C10">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A11">
+  <conditionalFormatting sqref="A16:A18">
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+  <conditionalFormatting sqref="A20 A23">
     <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14">
-    <cfRule type="duplicateValues" dxfId="0" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C14">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A15">
-    <cfRule type="duplicateValues" dxfId="0" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A16">
-    <cfRule type="duplicateValues" dxfId="0" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A17">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A18">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C18">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A19">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A20">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21">
-    <cfRule type="duplicateValues" dxfId="0" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A22">
-    <cfRule type="duplicateValues" dxfId="0" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A23">
-    <cfRule type="duplicateValues" dxfId="0" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A24">
-    <cfRule type="duplicateValues" dxfId="0" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A25">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A26">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A27">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C30">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31">
-    <cfRule type="duplicateValues" dxfId="0" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A32">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A33">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A34">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A35">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A37">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38">
-    <cfRule type="duplicateValues" dxfId="0" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="duplicateValues" dxfId="0" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40">
-    <cfRule type="duplicateValues" dxfId="0" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A41">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A42">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A43">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A44">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45">
-    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A46">
-    <cfRule type="duplicateValues" dxfId="0" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A47">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A48">
-    <cfRule type="duplicateValues" dxfId="0" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A49">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A50">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C50">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A52">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A53">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A54">
-    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C54">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A55">
-    <cfRule type="duplicateValues" dxfId="0" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A56">
-    <cfRule type="duplicateValues" dxfId="0" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A57">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A58">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C58">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A59">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1841,7 +2042,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1858,7 +2059,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
